--- a/docs/marketplaces.xlsx
+++ b/docs/marketplaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>AliExpress</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Base.com</t>
   </si>
   <si>
-    <t>write to compliance@rakuten.com to enable account again, then try to add ASOS</t>
-  </si>
-  <si>
     <t>6pm</t>
   </si>
   <si>
@@ -105,37 +102,48 @@
     <t>Alternative</t>
   </si>
   <si>
-    <t>cj, awin waiting</t>
-  </si>
-  <si>
     <t>cj rejected</t>
   </si>
   <si>
     <t>cj approved, awin approved</t>
   </si>
   <si>
-    <t>rejected, waitiing</t>
-  </si>
-  <si>
-    <t>awin: FR rejected, US&amp;CA and UK reapply waitiing</t>
-  </si>
-  <si>
     <t>api or cj, awin</t>
   </si>
   <si>
     <t>awin +</t>
+  </si>
+  <si>
+    <t>yes, UK</t>
+  </si>
+  <si>
+    <t>awin: FR rejected, US&amp;CA waitiing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>awin rejected, cj waiting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,22 +229,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -521,7 +535,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,12 +544,12 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="48.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -544,28 +558,31 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
+      <c r="G1" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>28</v>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,9 +597,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -596,25 +614,25 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,34 +643,40 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>34</v>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,11 +691,14 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -683,14 +710,16 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -704,33 +733,35 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -742,51 +773,55 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -798,9 +833,12 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1"/>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
